--- a/medicine/Enfance/Catherine_Missonnier/Catherine_Missonnier.xlsx
+++ b/medicine/Enfance/Catherine_Missonnier/Catherine_Missonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Missonnier, née à Paris le 26 février 1941, est une auteur de littérature d'enfance et de jeunesse et adulte.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a 11  ans quand elle part pour Madagascar avec ses parents. Elle découvre l'Afrique, ses paysages et sa culture.
 De retour à Paris pour passer son baccalauréat de philosophie, elle obtient un diplôme d'économie à Science Po. Elle travaille dans l'urbanisme et l’aménagement du territoire.
-Mais elle adore inventer et raconter des histoires, notamment  sa vie de pensionnaire au Lycée de Tananarive puis pour ses enfants[1]. Alors, seulement en 1988, elle s'accorde une pause professionnelle pour pouvoir publier ses récits[2]. 
-Depuis, elle a publié une trentaine de livres pour jeunesse : romans policiers, d'aventure ou de science-fiction et récemment le récit qu'elle méditait depuis longtemps sur les racines de sa culture familiale, Une lignée de femmes[3].
-En 1993 elle obtient le prix des Incorruptibles pour Extraterrestre appelle CM1 et en 1997 le prix Bernard Versele pour Pièges et Sortilèges[4],[5].
+Mais elle adore inventer et raconter des histoires, notamment  sa vie de pensionnaire au Lycée de Tananarive puis pour ses enfants. Alors, seulement en 1988, elle s'accorde une pause professionnelle pour pouvoir publier ses récits. 
+Depuis, elle a publié une trentaine de livres pour jeunesse : romans policiers, d'aventure ou de science-fiction et récemment le récit qu'elle méditait depuis longtemps sur les racines de sa culture familiale, Une lignée de femmes.
+En 1993 elle obtient le prix des Incorruptibles pour Extraterrestre appelle CM1 et en 1997 le prix Bernard Versele pour Pièges et Sortilèges,.
 </t>
         </is>
       </c>
@@ -546,16 +560,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mystère de la grange aux loups
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le mystère de la grange aux loups
 Vacances sorcières
 Un piège à loubards
 Pièges et sortilèges
 Premier en foot
 Le lion magicien
 Mystère à bord
-Le veilleur du Mont (photographies de Arnaud Baumann[6])
+Le veilleur du Mont (photographies de Arnaud Baumann)
 Pour les beaux yeux de Manon
 On ne badine pas avec les tueurs
 L'homme a la veste à carreaux
@@ -570,20 +586,122 @@
 L'heure de la vengeance, Rageot, 2005 (ISBN 978-2700231205)
 Une lignée de femmes, L'Harmattan, 2015, 356 p. (ISBN 978-2-343-06546-5)
 Un vampire dans la cité, Oskar éditeur, 2017 (ISBN 9791021405554)
-L'été des espions, Oskar éditeur, 2019, 151 p. (ISBN 979-10-214-0649-0)
-Les gardiens du secret
-Les gardiens du secret : Étranges connexions (2007)
+L'été des espions, Oskar éditeur, 2019, 151 p. (ISBN 979-10-214-0649-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les gardiens du secret</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les gardiens du secret : Étranges connexions (2007)
 Les gardiens du secret : Au cœur du complot (2008)
-Les gardiens du secret : La vérité en face (2009)
-Enquête à l'école
-Superman contre CE2
+Les gardiens du secret : La vérité en face (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enquête à l'école</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Superman contre CE2
 Opération caleçon au CE2
 Extraterrestre appelle CM1
 Les CM2 à la une
 Panique en 6e A (1999)
-Enquête à l'école : Les CM1 en classe mystère (2012)
-Vie privée
-Catherine Missonnier est mariée et mère d'un enfant, Laure, dont elle s'inspire pour certaines histoires (notamment la série de livres Enquête à l'école) également personnage principal des livres.[réf. nécessaire]
+Enquête à l'école : Les CM1 en classe mystère (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Missonnier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Missonnier est mariée et mère d'un enfant, Laure, dont elle s'inspire pour certaines histoires (notamment la série de livres Enquête à l'école) également personnage principal des livres.[réf. nécessaire]
 </t>
         </is>
       </c>
